--- a/biology/Zoologie/Astacidae/Astacidae.xlsx
+++ b/biology/Zoologie/Astacidae/Astacidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Astacidae sont une famille de crustacés décapodes créée par Pierre André Latreille (1762-1833) en 1802.
 Les espèces de cette famille font partie du groupe communément appelé « écrevisses ». 
@@ -512,15 +524,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (10 février 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (10 février 2020) :
 Astacus Fabricius, 1775
 Austropotamobius Skorikow, 1907
 Cambaroides Faxon, 1884
 Pacifastacus Bott, 1950
 Pontastacus Bott, 1950
-Selon ITIS      (10 février 2020)[1] :
+Selon ITIS      (10 février 2020) :
 Astacus Fabricius, 1775
 Pacifastacus Bott, 1950
 			Astacus astacus
@@ -553,7 +567,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Latreille, 1802, Historie Naturelle, Générale et Particulière des Crustacés et des Insectes.</t>
         </is>
